--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3481114.484359902</v>
+        <v>3478862.404648695</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7854648.981454255</v>
+        <v>7854648.981454257</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>103.9069048230592</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>201.6622187863204</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>250.8270402093339</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.28185552386362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>127.4503987265494</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>325.5519904991517</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>142.9824281355624</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>251.1382003403121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>218.8748435506846</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>55.17585209939403</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>131.5522128412696</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>96.40766581472943</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8913819999782</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027877</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.6065435523126</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>926.1215352571926</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,22 +4325,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609172</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609172</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4452,7 +4452,7 @@
         <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.30093260579</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C5" t="n">
-        <v>806.3384156653785</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D5" t="n">
-        <v>806.3384156653785</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="E5" t="n">
-        <v>806.3384156653785</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>395.352510875771</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,13 +4580,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645724</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669912</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4647,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>776.4603107317583</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>776.4603107317583</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>776.4603107317583</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="V7" t="n">
-        <v>776.4603107317583</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="W7" t="n">
-        <v>776.4603107317583</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>776.4603107317583</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>776.4603107317583</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3104.520121052924</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.4459618444156</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>349.5097789165087</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>199.393139504173</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746553</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.793114229131</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,19 +5413,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,22 +5765,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5838,19 +5838,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,25 +6124,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,34 +6449,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6965,19 +6965,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,16 +7309,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.1389282762425</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988362</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>41.54258064659096</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>31.13893193492463</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283491</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="G4" t="n">
-        <v>14826.69604186742</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.6960418674</v>
-      </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.793268576</v>
+        <v>-770811.7932685759</v>
       </c>
       <c r="C6" t="n">
         <v>557932.9524590165</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590161</v>
+        <v>557932.9524590167</v>
       </c>
       <c r="E6" t="n">
-        <v>305248.9170401258</v>
+        <v>305214.1791146898</v>
       </c>
       <c r="F6" t="n">
-        <v>630661.3788474812</v>
+        <v>630626.6409220453</v>
       </c>
       <c r="G6" t="n">
-        <v>630661.378847481</v>
+        <v>630626.6409220452</v>
       </c>
       <c r="H6" t="n">
-        <v>630661.3788474809</v>
+        <v>630626.6409220449</v>
       </c>
       <c r="I6" t="n">
-        <v>630661.3788474808</v>
+        <v>630626.6409220452</v>
       </c>
       <c r="J6" t="n">
-        <v>413130.1764502035</v>
+        <v>413095.4385247676</v>
       </c>
       <c r="K6" t="n">
-        <v>630661.3788474808</v>
+        <v>630626.6409220453</v>
       </c>
       <c r="L6" t="n">
-        <v>630661.3788474808</v>
+        <v>630626.6409220453</v>
       </c>
       <c r="M6" t="n">
-        <v>545606.350911969</v>
+        <v>545571.6129865332</v>
       </c>
       <c r="N6" t="n">
-        <v>630661.378847481</v>
+        <v>630626.6409220456</v>
       </c>
       <c r="O6" t="n">
-        <v>630661.378847481</v>
+        <v>630626.6409220452</v>
       </c>
       <c r="P6" t="n">
-        <v>630661.3788474806</v>
+        <v>630626.6409220452</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>302.9691409186522</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>168.0688818921486</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>35.38479799627893</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.3027978282312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>254.4799713457124</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>85.36973515430179</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>76.56652114060682</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>35.38479799627891</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>32.1203284082174</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>314.555248579075</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>14.88174980529953</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,13 +28068,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>129.3019895743077</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32485,7 +32485,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,28 +33734,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,10 +34229,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243153</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,28 +37382,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,10 +37877,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
